--- a/public/excel/test.xlsx
+++ b/public/excel/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20140" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vĩ mô" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="554">
   <si>
     <t>Câu hỏi</t>
   </si>
@@ -762,18 +762,6 @@
   </si>
   <si>
     <t>Lãi suất tái chiết khẩu hiện tại của Ngân hàng Nhà nước Việt Nam là bao nhiêu:</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,00%</t>
   </si>
   <si>
     <t>Trong một nền kinh tế đóng, nếu Chính phủ tăng thuế tự định và chi tiêu cùng một lượng như nhau thì điều gì sẽ xảy ra:</t>
@@ -1668,6 +1656,78 @@
   </si>
   <si>
     <t>Sai3</t>
+  </si>
+  <si>
+    <t>"1%"</t>
+  </si>
+  <si>
+    <t>"2%"</t>
+  </si>
+  <si>
+    <t>"4%"</t>
+  </si>
+  <si>
+    <t>"3%"</t>
+  </si>
+  <si>
+    <t>"4,25%"</t>
+  </si>
+  <si>
+    <t>"6,25%"</t>
+  </si>
+  <si>
+    <t>"6,5%"</t>
+  </si>
+  <si>
+    <t>"5,00%"</t>
+  </si>
+  <si>
+    <t>"30%"</t>
+  </si>
+  <si>
+    <t>"7%"</t>
+  </si>
+  <si>
+    <t>"20%"</t>
+  </si>
+  <si>
+    <t>"40%"</t>
+  </si>
+  <si>
+    <t>"50%"</t>
+  </si>
+  <si>
+    <t>"8%"</t>
+  </si>
+  <si>
+    <t>"15%"</t>
+  </si>
+  <si>
+    <t>"60%"</t>
+  </si>
+  <si>
+    <t>"70%"</t>
+  </si>
+  <si>
+    <t>"25%"</t>
+  </si>
+  <si>
+    <t>"45%"</t>
+  </si>
+  <si>
+    <t>"17.8%"</t>
+  </si>
+  <si>
+    <t>"21.5%"</t>
+  </si>
+  <si>
+    <t>"14.5%"</t>
+  </si>
+  <si>
+    <t>"20.8%"</t>
+  </si>
+  <si>
+    <t>"10%"</t>
   </si>
 </sst>
 </file>
@@ -2040,9 +2100,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4794250</xdr:colOff>
+      <xdr:colOff>5016500</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>2892425</xdr:rowOff>
+      <xdr:rowOff>2933700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2058,7 +2118,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="339725" y="5911850"/>
-          <a:ext cx="4695825" cy="2682875"/>
+          <a:ext cx="4918075" cy="2724150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2447,8 +2507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="A1:F24"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2471,13 +2531,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -2590,13 +2650,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -2708,13 +2768,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -2804,17 +2864,17 @@
       <c r="B18" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="37">
-        <v>0.02</v>
-      </c>
-      <c r="D18" s="37">
-        <v>0.01</v>
-      </c>
-      <c r="E18" s="37">
-        <v>0.04</v>
-      </c>
-      <c r="F18" s="37">
-        <v>0.03</v>
+      <c r="C18" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2826,13 +2886,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2903,16 +2963,16 @@
         <v>241</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>242</v>
+        <v>534</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>243</v>
+        <v>535</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>244</v>
+        <v>536</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>245</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2920,19 +2980,19 @@
         <v>5</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2945,8 +3005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2969,13 +3029,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3087,13 +3147,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3205,13 +3265,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3323,13 +3383,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3444,7 +3504,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3466,13 +3526,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3584,13 +3644,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3620,17 +3680,17 @@
       <c r="B9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.5</v>
+      <c r="C9" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3702,13 +3762,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3758,17 +3818,17 @@
       <c r="B16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="4">
-        <v>7.0000000000000007E-2</v>
+      <c r="C16" s="4" t="s">
+        <v>539</v>
       </c>
       <c r="D16" s="4">
         <v>0.1</v>
       </c>
-      <c r="E16" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.08</v>
+      <c r="E16" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3820,13 +3880,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3938,8 +3998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3962,13 +4022,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3976,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C2" s="10">
         <v>65000</v>
@@ -3996,19 +4056,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4016,19 +4076,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4036,19 +4096,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4056,19 +4116,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -4076,19 +4136,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4096,19 +4156,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4116,19 +4176,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.5</v>
+        <v>288</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4136,19 +4196,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4156,19 +4216,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -4180,13 +4240,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4194,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C13" s="10">
         <v>70000</v>
@@ -4214,7 +4274,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C14" s="10">
         <v>18000</v>
@@ -4234,19 +4294,19 @@
         <v>3</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4254,19 +4314,19 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -4274,19 +4334,19 @@
         <v>5</v>
       </c>
       <c r="B17" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>312</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -4294,19 +4354,19 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4314,19 +4374,19 @@
         <v>7</v>
       </c>
       <c r="B19" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>322</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -4334,19 +4394,19 @@
         <v>8</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="C20" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0.7</v>
+        <v>323</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4354,19 +4414,19 @@
         <v>9</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4374,19 +4434,19 @@
         <v>10</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>302</v>
-      </c>
       <c r="E22" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -4398,13 +4458,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4412,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C24" s="10">
         <v>80000</v>
@@ -4432,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C25" s="17">
         <v>23100</v>
@@ -4452,19 +4512,19 @@
         <v>3</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4472,19 +4532,19 @@
         <v>4</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>336</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -4492,19 +4552,19 @@
         <v>5</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>341</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="147" customHeight="1" x14ac:dyDescent="0.2">
@@ -4512,19 +4572,19 @@
         <v>6</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -4532,19 +4592,19 @@
         <v>7</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -4552,19 +4612,19 @@
         <v>8</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -4572,19 +4632,19 @@
         <v>9</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="265.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4592,19 +4652,19 @@
         <v>10</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -4616,13 +4676,13 @@
         <v>1</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4630,19 +4690,19 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4650,19 +4710,19 @@
         <v>2</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="F36" s="33" t="s">
         <v>369</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4670,19 +4730,19 @@
         <v>3</v>
       </c>
       <c r="B37" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4690,19 +4750,19 @@
         <v>4</v>
       </c>
       <c r="B38" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>375</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -4710,19 +4770,19 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4730,19 +4790,19 @@
         <v>6</v>
       </c>
       <c r="B40" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>384</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -4750,19 +4810,19 @@
         <v>7</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -4770,19 +4830,19 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4790,19 +4850,19 @@
         <v>9</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="267" customHeight="1" x14ac:dyDescent="0.2">
@@ -4810,19 +4870,19 @@
         <v>10</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4836,8 +4896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="A1:F24"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4859,13 +4919,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4873,19 +4933,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4893,19 +4953,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>404</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4913,19 +4973,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4933,19 +4993,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>414</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4953,19 +5013,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4977,13 +5037,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -4991,19 +5051,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D8" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="E8" s="39" t="s">
-        <v>426</v>
-      </c>
       <c r="F8" s="39" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5011,19 +5071,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>428</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5031,19 +5091,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5051,19 +5111,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5071,19 +5131,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5095,13 +5155,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -5109,19 +5169,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>448</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -5129,19 +5189,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -5149,19 +5209,19 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -5169,19 +5229,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -5189,19 +5249,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -5213,13 +5273,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -5227,19 +5287,19 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -5247,19 +5307,19 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -5267,19 +5327,19 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -5287,19 +5347,19 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -5307,19 +5367,19 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -5331,8 +5391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="A1:F24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5351,13 +5411,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5365,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C2" s="40">
         <v>164215</v>
@@ -5385,7 +5445,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C3" s="40">
         <v>98850</v>
@@ -5405,7 +5465,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C4" s="40">
         <v>69333</v>
@@ -5425,19 +5485,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="D5" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="F5" s="41">
-        <v>0.7</v>
+        <v>249</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>547</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5445,7 +5505,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C6" s="42">
         <v>16.46</v>
@@ -5469,13 +5529,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5483,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C8" s="40">
         <v>286038</v>
@@ -5503,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C9" s="40">
         <v>101462</v>
@@ -5523,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C10" s="40">
         <v>115000</v>
@@ -5543,19 +5603,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="41">
-        <v>0.45</v>
-      </c>
-      <c r="D11" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="E11" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="F11" s="41">
-        <v>0.7</v>
+        <v>254</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>548</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5563,7 +5623,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C12" s="42">
         <v>25.57</v>
@@ -5587,13 +5647,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -5601,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C14" s="40">
         <v>164215</v>
@@ -5621,7 +5681,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C15" s="40">
         <v>98850</v>
@@ -5641,7 +5701,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C16" s="40">
         <v>69333</v>
@@ -5661,19 +5721,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C17" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="D17" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="F17" s="41">
-        <v>0.7</v>
+        <v>256</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>547</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -5681,7 +5741,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C18" s="42">
         <v>16.46</v>
@@ -5705,13 +5765,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -5719,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C20" s="40">
         <v>286038</v>
@@ -5739,7 +5799,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C21" s="40">
         <v>101462</v>
@@ -5759,7 +5819,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C22" s="40">
         <v>115000</v>
@@ -5779,19 +5839,19 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="41">
-        <v>0.45</v>
-      </c>
-      <c r="D23" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="E23" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="F23" s="41">
-        <v>0.7</v>
+        <v>254</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>548</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>540</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -5799,7 +5859,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C24" s="42">
         <v>25.57</v>
@@ -5823,8 +5883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5847,13 +5907,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5861,19 +5921,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.2">
@@ -5881,7 +5941,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C3" s="22">
         <v>35714</v>
@@ -5901,16 +5961,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -5919,19 +5979,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="D5" s="23">
-        <v>0.215</v>
-      </c>
-      <c r="E5" s="23">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="F5" s="23">
-        <v>0.20799999999999999</v>
+        <v>500</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5939,19 +5999,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5963,13 +6023,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5977,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C8" s="24">
         <v>0.15</v>
@@ -5997,19 +6057,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -6017,19 +6077,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6037,7 +6097,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C11" s="22">
         <v>35714</v>
@@ -6057,19 +6117,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C12" s="23">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0.215</v>
-      </c>
-      <c r="E12" s="23">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0.20799999999999999</v>
+        <v>500</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -6081,13 +6141,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -6095,19 +6155,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="C14" s="24">
-        <v>0.15</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F14" s="24">
-        <v>0.04</v>
+        <v>506</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -6115,19 +6175,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="C15" s="23">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="D15" s="23">
-        <v>0.215</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="F15" s="23">
-        <v>0.20799999999999999</v>
+        <v>500</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -6135,7 +6195,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C16" s="22">
         <v>35714</v>
@@ -6155,19 +6215,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>520</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -6175,19 +6235,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -6199,13 +6259,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -6213,19 +6273,19 @@
         <v>1</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="C20" s="24">
-        <v>0.15</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="E20" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F20" s="24">
-        <v>0.04</v>
+        <v>506</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -6233,19 +6293,19 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C21" s="23">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="D21" s="23">
-        <v>0.215</v>
-      </c>
-      <c r="E21" s="23">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="F21" s="23">
-        <v>0.20799999999999999</v>
+        <v>500</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -6253,7 +6313,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C22" s="22">
         <v>35714</v>
@@ -6273,19 +6333,19 @@
         <v>4</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -6293,19 +6353,19 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/test.xlsx
+++ b/public/excel/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20140" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vĩ mô" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="559">
   <si>
     <t>Câu hỏi</t>
   </si>
@@ -1728,6 +1728,21 @@
   </si>
   <si>
     <t>"10%"</t>
+  </si>
+  <si>
+    <t>Ảnh</t>
+  </si>
+  <si>
+    <t>http://i-invest.sic-ftu.org/image/Picture0.png</t>
+  </si>
+  <si>
+    <t>http://i-invest.sic-ftu.org/image/Picture1.png</t>
+  </si>
+  <si>
+    <t>http://i-invest.sic-ftu.org/image/Picture2.png</t>
+  </si>
+  <si>
+    <t>http://i-invest.sic-ftu.org/image/Picture3.png</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1872,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1879,8 +1894,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1993,8 +2020,11 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2005,6 +2035,12 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2015,6 +2051,12 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2100,9 +2142,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5016500</xdr:colOff>
+      <xdr:colOff>5245100</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>2933700</xdr:rowOff>
+      <xdr:rowOff>2794000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2118,7 +2160,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="339725" y="5911850"/>
-          <a:ext cx="4918075" cy="2724150"/>
+          <a:ext cx="5146675" cy="2584450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2137,9 +2179,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5857875</xdr:colOff>
+      <xdr:colOff>5803900</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>2800350</xdr:rowOff>
+      <xdr:rowOff>2603500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2154,8 +2196,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="5800725" cy="2590800"/>
+          <a:off x="298450" y="13811250"/>
+          <a:ext cx="5746750" cy="2393950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2174,9 +2216,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3933825</xdr:colOff>
+      <xdr:colOff>4508500</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>3238500</xdr:rowOff>
+      <xdr:rowOff>3124200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2191,8 +2233,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3857625" cy="2038350"/>
+          <a:off x="317500" y="22078950"/>
+          <a:ext cx="4432300" cy="1924050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2211,9 +2253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6038850</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>3314700</xdr:rowOff>
+      <xdr:colOff>6670675</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2228,8 +2270,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="5972175" cy="3067050"/>
+          <a:off x="307975" y="29991050"/>
+          <a:ext cx="6604000" cy="5448300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2505,493 +2547,526 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="216.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="101.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="96.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="101.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="96.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="34">
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="E2" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="G2" s="35" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="34">
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="35" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="E4" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="F4" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="G4" s="35" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="E5" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="F5" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="G5" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="E6" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="F6" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="G6" s="35" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="G7" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="36">
         <v>1</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="E8" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="F8" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="G8" s="35" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="36">
         <v>2</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="E9" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="F9" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="G9" s="35" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="36">
         <v>3</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="E10" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="F10" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="G10" s="35" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="36">
         <v>4</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="E11" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="F11" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="G11" s="35" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36">
         <v>5</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="E12" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="F12" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="G12" s="35" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="E13" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="F13" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="G13" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="36">
         <v>1</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="E14" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="F14" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="G14" s="35" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="36">
         <v>2</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="E15" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="F15" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="G15" s="35" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="36">
         <v>3</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="E16" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="F16" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="G16" s="35" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="36">
         <v>4</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="E17" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="F17" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="G17" s="35" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="36">
         <v>5</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="37" t="s">
         <v>531</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="E18" s="37" t="s">
         <v>530</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="F18" s="37" t="s">
         <v>532</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="G18" s="37" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="E19" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="F19" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="36">
         <v>1</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="E20" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="F20" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="G20" s="35" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="36">
         <v>2</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="E21" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="F21" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="G21" s="35" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="36">
         <v>3</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="E22" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="F22" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="G22" s="35" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="36">
         <v>4</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="35"/>
+      <c r="D23" s="35" t="s">
         <v>534</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="E23" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="F23" s="35" t="s">
         <v>536</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="G23" s="35" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="36">
         <v>5</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="35"/>
+      <c r="D24" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="E24" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="F24" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="G24" s="35" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3003,492 +3078,525 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="240" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="108.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="198.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="75.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="108.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="38">
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="E2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="G2" s="35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="38">
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="38">
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="E4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="F4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="G4" s="35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="38">
         <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="E5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="F5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="G5" s="35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="38">
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="E6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="F6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="G6" s="35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
       <c r="B7" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="G7" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="38">
         <v>1</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="E8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="F8" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="G8" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="38">
         <v>2</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="E9" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="F9" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="G9" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="38">
         <v>3</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="E10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="F10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="G10" s="35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="38">
         <v>4</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="E11" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="F11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="G11" s="35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="38">
         <v>5</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35">
         <v>0.75</v>
       </c>
-      <c r="D12" s="35">
+      <c r="E12" s="35">
         <v>3</v>
       </c>
-      <c r="E12" s="35">
+      <c r="F12" s="35">
         <v>4</v>
       </c>
-      <c r="F12" s="35">
+      <c r="G12" s="35">
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="30"/>
       <c r="B13" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="E13" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="F13" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="G13" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="38">
         <v>1</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35">
         <v>900</v>
       </c>
-      <c r="D14" s="35">
+      <c r="E14" s="35">
         <v>600</v>
       </c>
-      <c r="E14" s="35">
+      <c r="F14" s="35">
         <v>1000</v>
       </c>
-      <c r="F14" s="35">
+      <c r="G14" s="35">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="38">
         <v>2</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35">
         <v>750</v>
       </c>
-      <c r="D15" s="35">
+      <c r="E15" s="35">
         <v>850</v>
       </c>
-      <c r="E15" s="35">
+      <c r="F15" s="35">
         <v>120</v>
       </c>
-      <c r="F15" s="35">
+      <c r="G15" s="35">
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="38">
         <v>3</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35">
         <v>70</v>
       </c>
-      <c r="D16" s="35">
+      <c r="E16" s="35">
         <v>60</v>
       </c>
-      <c r="E16" s="35">
+      <c r="F16" s="35">
         <v>100</v>
       </c>
-      <c r="F16" s="35">
+      <c r="G16" s="35">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <v>4</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="E17" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="F17" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="G17" s="35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="38">
         <v>5</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="E18" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="F18" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="G18" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="30"/>
       <c r="B19" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="E19" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="F19" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="38">
         <v>1</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="E20" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="F20" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="G20" s="35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="38">
         <v>2</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="E21" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="F21" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="G21" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <v>3</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="E22" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="F22" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="G22" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="38">
         <v>4</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="35"/>
+      <c r="D23" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="E23" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="F23" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="G23" s="35" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="38">
         <v>5</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="35"/>
+      <c r="D24" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="E24" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="F24" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="G24" s="35" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3501,491 +3609,524 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="173.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="97.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="1"/>
+      <c r="D6" s="22">
         <v>6670</v>
       </c>
-      <c r="D6" s="22">
+      <c r="E6" s="22">
         <v>7760</v>
       </c>
-      <c r="E6" s="22">
+      <c r="F6" s="22">
         <v>6760</v>
       </c>
-      <c r="F6" s="22">
+      <c r="G6" s="22">
         <v>7450</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="G7" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="1"/>
+      <c r="D12" s="5">
         <v>6.36</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>5.63</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>6.49</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>5.28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="E13" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="F13" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="G13" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>0.1</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="1"/>
+      <c r="D18" s="5">
         <v>13.64</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>13.46</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>12.14</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>12.95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="E19" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="F19" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="1"/>
+      <c r="D22" s="6">
         <v>500</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E22" s="6">
         <v>300</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F22" s="6">
         <v>100</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="1"/>
+      <c r="D24" s="5">
         <v>6.43</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E24" s="5">
         <v>7.34</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <v>8.32</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <v>7.65</v>
       </c>
     </row>
@@ -3996,892 +4137,953 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="239.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="126.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="86.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="227" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="98.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="126.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="1"/>
+      <c r="D2" s="10">
         <v>65000</v>
       </c>
-      <c r="D2" s="10">
+      <c r="E2" s="10">
         <v>60000</v>
       </c>
-      <c r="E2" s="10">
+      <c r="F2" s="10">
         <v>45000</v>
       </c>
-      <c r="F2" s="10">
+      <c r="G2" s="10">
         <v>40000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="239.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="30"/>
       <c r="B12" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="E12" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="F12" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="G12" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="1"/>
+      <c r="D13" s="10">
         <v>70000</v>
       </c>
-      <c r="D13" s="10">
+      <c r="E13" s="10">
         <v>65000</v>
       </c>
-      <c r="E13" s="10">
+      <c r="F13" s="10">
         <v>45000</v>
       </c>
-      <c r="F13" s="10">
+      <c r="G13" s="10">
         <v>40000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="26"/>
+      <c r="D14" s="10">
         <v>18000</v>
       </c>
-      <c r="D14" s="10">
+      <c r="E14" s="10">
         <v>18600</v>
       </c>
-      <c r="E14" s="10">
+      <c r="F14" s="10">
         <v>20500</v>
       </c>
-      <c r="F14" s="10">
+      <c r="G14" s="10">
         <v>21000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="E17" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="F17" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="G17" s="32" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>7</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="E19" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="F19" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="G19" s="15" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>8</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="E20" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="F20" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="G20" s="16" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>9</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="G21" s="11" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>10</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="30"/>
       <c r="B23" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="E23" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="F23" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="G23" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="1"/>
+      <c r="D24" s="10">
         <v>80000</v>
       </c>
-      <c r="D24" s="10">
+      <c r="E24" s="10">
         <v>70000</v>
       </c>
-      <c r="E24" s="10">
+      <c r="F24" s="10">
         <v>60000</v>
       </c>
-      <c r="F24" s="10">
+      <c r="G24" s="10">
         <v>40000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="18"/>
+      <c r="D25" s="17">
         <v>23100</v>
       </c>
-      <c r="D25" s="17">
+      <c r="E25" s="17">
         <v>19500</v>
       </c>
-      <c r="E25" s="17">
+      <c r="F25" s="17">
         <v>21500</v>
       </c>
-      <c r="F25" s="17">
+      <c r="G25" s="17">
         <v>22500</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="E26" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="F26" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="G26" s="15" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>4</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="E27" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="F27" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="G27" s="15" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>5</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="F28" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="G28" s="15" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>6</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>7</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="E30" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="F30" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="G30" s="15" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>8</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="E31" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="F31" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="G31" s="15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>9</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="G32" s="11" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="265.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="265.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>10</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="30"/>
       <c r="B34" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="E34" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="F34" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="G34" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="G35" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="E36" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="F36" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="G36" s="33" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>3</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="E37" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="F37" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="G37" s="11" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>4</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="26"/>
+      <c r="D38" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="E38" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="F38" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="G38" s="11" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="E39" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="F39" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="G39" s="11" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>6</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="26"/>
+      <c r="D40" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="E40" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="F40" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="G40" s="15" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>7</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="26"/>
+      <c r="D41" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="E41" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="F41" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="G41" s="11" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="1"/>
+      <c r="D42" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="E42" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="F42" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="G42" s="11" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>9</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="E43" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="F43" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="G43" s="11" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="267" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="267" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>10</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="E44" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="F44" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="G44" s="11" t="s">
         <v>360</v>
       </c>
     </row>
@@ -4894,491 +5096,524 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="192.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="94.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.1640625" customWidth="1"/>
+    <col min="4" max="4" width="98.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="94.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="23" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="G7" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="39" t="s">
         <v>421</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="E8" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="F8" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="G8" s="39" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>2</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26" t="s">
         <v>425</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="E9" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="G9" s="26" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>3</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="E13" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="F13" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="G13" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="E19" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="F19" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>423</v>
       </c>
     </row>
@@ -5389,488 +5624,521 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="220.5" customWidth="1"/>
+    <col min="3" max="3" width="71.33203125" customWidth="1"/>
+    <col min="4" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="1"/>
+      <c r="D2" s="40">
         <v>164215</v>
       </c>
-      <c r="D2" s="40">
+      <c r="E2" s="40">
         <v>169123</v>
       </c>
-      <c r="E2" s="40">
+      <c r="F2" s="40">
         <v>213241</v>
       </c>
-      <c r="F2" s="40">
+      <c r="G2" s="40">
         <v>98435</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="1"/>
+      <c r="D3" s="40">
         <v>98850</v>
       </c>
-      <c r="D3" s="40">
+      <c r="E3" s="40">
         <v>92024</v>
       </c>
-      <c r="E3" s="40">
+      <c r="F3" s="40">
         <v>94252</v>
       </c>
-      <c r="F3" s="40">
+      <c r="G3" s="40">
         <v>97432</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="1"/>
+      <c r="D4" s="40">
         <v>69333</v>
       </c>
-      <c r="D4" s="40">
+      <c r="E4" s="40">
         <v>73333</v>
       </c>
-      <c r="E4" s="40">
+      <c r="F4" s="40">
         <v>53333</v>
       </c>
-      <c r="F4" s="40">
+      <c r="G4" s="40">
         <v>63333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="41" t="s">
         <v>547</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="E5" s="41" t="s">
         <v>540</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="F5" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="G5" s="41" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="1"/>
+      <c r="D6" s="42">
         <v>16.46</v>
       </c>
-      <c r="D6" s="43">
+      <c r="E6" s="43">
         <v>49.3</v>
       </c>
-      <c r="E6" s="43">
+      <c r="F6" s="43">
         <v>12.4</v>
       </c>
-      <c r="F6" s="43">
+      <c r="G6" s="43">
         <v>21.1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="G7" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="1"/>
+      <c r="D8" s="40">
         <v>286038</v>
       </c>
-      <c r="D8" s="40">
+      <c r="E8" s="40">
         <v>278021</v>
       </c>
-      <c r="E8" s="40">
+      <c r="F8" s="40">
         <v>279084</v>
       </c>
-      <c r="F8" s="40">
+      <c r="G8" s="40">
         <v>290412</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="1"/>
+      <c r="D9" s="40">
         <v>101462</v>
       </c>
-      <c r="D9" s="40">
+      <c r="E9" s="40">
         <v>98350</v>
       </c>
-      <c r="E9" s="40">
+      <c r="F9" s="40">
         <v>240524</v>
       </c>
-      <c r="F9" s="40">
+      <c r="G9" s="40">
         <v>102214</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="1"/>
+      <c r="D10" s="40">
         <v>115000</v>
       </c>
-      <c r="D10" s="40">
+      <c r="E10" s="40">
         <v>100500</v>
       </c>
-      <c r="E10" s="40">
+      <c r="F10" s="40">
         <v>124000</v>
       </c>
-      <c r="F10" s="40">
+      <c r="G10" s="40">
         <v>252214</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="41" t="s">
         <v>548</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="E11" s="41" t="s">
         <v>540</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="F11" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="G11" s="41" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="1"/>
+      <c r="D12" s="42">
         <v>25.57</v>
       </c>
-      <c r="D12" s="43">
+      <c r="E12" s="43">
         <v>49.3</v>
       </c>
-      <c r="E12" s="43">
+      <c r="F12" s="43">
         <v>12.4</v>
       </c>
-      <c r="F12" s="43">
+      <c r="G12" s="43">
         <v>21.1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="30"/>
       <c r="B13" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="E13" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="F13" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="G13" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="1"/>
+      <c r="D14" s="40">
         <v>164215</v>
       </c>
-      <c r="D14" s="40">
+      <c r="E14" s="40">
         <v>169123</v>
       </c>
-      <c r="E14" s="40">
+      <c r="F14" s="40">
         <v>213241</v>
       </c>
-      <c r="F14" s="40">
+      <c r="G14" s="40">
         <v>98435</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="1"/>
+      <c r="D15" s="40">
         <v>98850</v>
       </c>
-      <c r="D15" s="40">
+      <c r="E15" s="40">
         <v>92024</v>
       </c>
-      <c r="E15" s="40">
+      <c r="F15" s="40">
         <v>94252</v>
       </c>
-      <c r="F15" s="40">
+      <c r="G15" s="40">
         <v>97432</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="1"/>
+      <c r="D16" s="40">
         <v>69333</v>
       </c>
-      <c r="D16" s="40">
+      <c r="E16" s="40">
         <v>73333</v>
       </c>
-      <c r="E16" s="40">
+      <c r="F16" s="40">
         <v>53333</v>
       </c>
-      <c r="F16" s="40">
+      <c r="G16" s="40">
         <v>63333</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="41" t="s">
         <v>547</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="E17" s="41" t="s">
         <v>540</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="F17" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="G17" s="41" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="1"/>
+      <c r="D18" s="42">
         <v>16.46</v>
       </c>
-      <c r="D18" s="43">
+      <c r="E18" s="43">
         <v>49.3</v>
       </c>
-      <c r="E18" s="43">
+      <c r="F18" s="43">
         <v>12.4</v>
       </c>
-      <c r="F18" s="43">
+      <c r="G18" s="43">
         <v>21.1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="E19" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="F19" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="1"/>
+      <c r="D20" s="40">
         <v>286038</v>
       </c>
-      <c r="D20" s="40">
+      <c r="E20" s="40">
         <v>278021</v>
       </c>
-      <c r="E20" s="40">
+      <c r="F20" s="40">
         <v>279084</v>
       </c>
-      <c r="F20" s="40">
+      <c r="G20" s="40">
         <v>290412</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="1"/>
+      <c r="D21" s="40">
         <v>101462</v>
       </c>
-      <c r="D21" s="40">
+      <c r="E21" s="40">
         <v>98350</v>
       </c>
-      <c r="E21" s="40">
+      <c r="F21" s="40">
         <v>240524</v>
       </c>
-      <c r="F21" s="40">
+      <c r="G21" s="40">
         <v>102214</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="1"/>
+      <c r="D22" s="40">
         <v>115000</v>
       </c>
-      <c r="D22" s="40">
+      <c r="E22" s="40">
         <v>100500</v>
       </c>
-      <c r="E22" s="40">
+      <c r="F22" s="40">
         <v>124000</v>
       </c>
-      <c r="F22" s="40">
+      <c r="G22" s="40">
         <v>252214</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="41" t="s">
         <v>548</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="E23" s="41" t="s">
         <v>540</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="F23" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="G23" s="41" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="1"/>
+      <c r="D24" s="42">
         <v>25.57</v>
       </c>
-      <c r="D24" s="43">
+      <c r="E24" s="43">
         <v>49.3</v>
       </c>
-      <c r="E24" s="43">
+      <c r="F24" s="43">
         <v>12.4</v>
       </c>
-      <c r="F24" s="43">
+      <c r="G24" s="43">
         <v>21.1</v>
       </c>
     </row>
@@ -5881,490 +6149,523 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="216.5" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="1"/>
+      <c r="D3" s="22">
         <v>35714</v>
       </c>
-      <c r="D3" s="22">
+      <c r="E3" s="22">
         <v>36723</v>
       </c>
-      <c r="E3" s="22">
+      <c r="F3" s="22">
         <v>25000</v>
       </c>
-      <c r="F3" s="22">
+      <c r="G3" s="22">
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="23" t="s">
         <v>551</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="23" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
       <c r="B7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="G7" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="1"/>
+      <c r="D8" s="24">
         <v>0.15</v>
       </c>
-      <c r="D8" s="24">
+      <c r="E8" s="24">
         <v>0.1</v>
       </c>
-      <c r="E8" s="24">
+      <c r="F8" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F8" s="24">
+      <c r="G8" s="24">
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="1"/>
+      <c r="D11" s="22">
         <v>35714</v>
       </c>
-      <c r="D11" s="22">
+      <c r="E11" s="22">
         <v>36723</v>
       </c>
-      <c r="E11" s="22">
+      <c r="F11" s="22">
         <v>25000</v>
       </c>
-      <c r="F11" s="22">
+      <c r="G11" s="22">
         <v>15000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="E12" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="F12" s="23" t="s">
         <v>551</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="G12" s="23" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="30"/>
       <c r="B13" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="E13" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="F13" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="G13" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="24" t="s">
         <v>544</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="E14" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="F14" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="G14" s="24" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="E15" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="F15" s="23" t="s">
         <v>551</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="23" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="26"/>
+      <c r="D16" s="22">
         <v>35714</v>
       </c>
-      <c r="D16" s="22">
+      <c r="E16" s="22">
         <v>36723</v>
       </c>
-      <c r="E16" s="22">
+      <c r="F16" s="22">
         <v>25000</v>
       </c>
-      <c r="F16" s="22">
+      <c r="G16" s="22">
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="E17" s="26" t="s">
         <v>518</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="F17" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="G17" s="26" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="30"/>
       <c r="B19" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="E19" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="F19" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="24" t="s">
         <v>544</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="E20" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="F20" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="G20" s="24" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="E21" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="F21" s="23" t="s">
         <v>551</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="G21" s="23" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="26"/>
+      <c r="D22" s="22">
         <v>35714</v>
       </c>
-      <c r="D22" s="22">
+      <c r="E22" s="22">
         <v>36723</v>
       </c>
-      <c r="E22" s="22">
+      <c r="F22" s="22">
         <v>25000</v>
       </c>
-      <c r="F22" s="22">
+      <c r="G22" s="22">
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>4</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="E23" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="F23" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="G23" s="26" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>515</v>
       </c>
     </row>

--- a/public/excel/test.xlsx
+++ b/public/excel/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20140" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20140" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Vĩ mô" sheetId="1" r:id="rId1"/>
@@ -2550,7 +2550,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3081,7 +3081,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4139,8 +4139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5626,8 +5626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6151,15 +6151,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="216.5" customWidth="1"/>
+    <col min="3" max="3" width="71.1640625" customWidth="1"/>
     <col min="4" max="4" width="37.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.1640625" bestFit="1" customWidth="1"/>
